--- a/Tecnologia da Informação/Product-Sprint Backlog.xlsx
+++ b/Tecnologia da Informação/Product-Sprint Backlog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -718,7 +718,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -879,16 +879,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="G" xfId="2" xr:uid="{9E8260A5-C24A-4AC3-A086-B98A1C97C569}"/>
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="278">
+  <dxfs count="203">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -921,6 +918,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -931,6 +968,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -941,6 +1018,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -961,6 +1058,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -991,6 +1118,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1001,6 +1158,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1021,6 +1188,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1031,6 +1208,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1041,6 +1228,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1061,6 +1298,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1071,6 +1318,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1101,6 +1388,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1121,6 +1418,66 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1131,6 +1488,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1141,6 +1508,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1191,6 +1588,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1211,6 +1618,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1301,6 +1718,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1311,6 +1778,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1321,6 +1828,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1371,6 +1888,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1381,6 +1908,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1391,6 +1958,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1401,6 +1998,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1441,6 +2088,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1451,6 +2118,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1461,6 +2168,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1471,6 +2188,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1481,6 +2208,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1501,6 +2248,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1521,6 +2298,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1531,6 +2318,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1541,6 +2348,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1551,6 +2368,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="4" tint="-0.499984740745262"/>
       </font>
       <fill>
@@ -1561,6 +2398,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1571,6 +2448,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1581,6 +2488,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1601,6 +2558,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF002060"/>
       </font>
       <fill>
@@ -1621,6 +2598,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1671,6 +2668,46 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF93B7FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1716,1546 +2753,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3641,256 +3138,6 @@
           <color theme="0" tint="-0.249977111117893"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF93B7FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7979"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3973,19 +3220,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93BD3079-F089-44C3-8C40-5BEBC3CBFAD9}" name="Tabela4" displayName="Tabela4" ref="C3:I30" headerRowDxfId="252" dataDxfId="250" headerRowBorderDxfId="251" tableBorderDxfId="249">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{93BD3079-F089-44C3-8C40-5BEBC3CBFAD9}" name="Tabela4" displayName="Tabela4" ref="C3:I30" headerRowDxfId="202" dataDxfId="200" headerRowBorderDxfId="201" tableBorderDxfId="199">
   <autoFilter ref="C3:I30" xr:uid="{93BD3079-F089-44C3-8C40-5BEBC3CBFAD9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:H13">
     <sortCondition descending="1" ref="H3:H13"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{36E880E4-916E-408F-9ADA-27042CECB835}" name="REQUISITO" totalsRowLabel="Total" dataDxfId="248"/>
-    <tableColumn id="2" xr3:uid="{D8DDA5BF-58B1-4AB4-88BF-E3A756B5B1E3}" name="DESCRIÇÃO" dataDxfId="247"/>
-    <tableColumn id="3" xr3:uid="{30B7566E-7078-4652-8F6F-03EBB14A7BD3}" name="CLASSIFICAÇÃO" dataDxfId="246"/>
-    <tableColumn id="4" xr3:uid="{9811019D-7C26-44C2-8FC5-702021479048}" name="FUNCIONALIDADE" dataDxfId="245"/>
-    <tableColumn id="5" xr3:uid="{32479D40-A407-49AA-A8FF-0BE375C8B00D}" name="TAMANHO" dataDxfId="244"/>
-    <tableColumn id="6" xr3:uid="{B0EB5ECB-B2AE-4132-A7E9-679B10665560}" name="TAM (#)" dataDxfId="243"/>
-    <tableColumn id="11" xr3:uid="{7A9296CF-AC69-447A-B252-2B8D46350DCC}" name="SPRINT" totalsRowFunction="count" dataDxfId="242"/>
+    <tableColumn id="1" xr3:uid="{36E880E4-916E-408F-9ADA-27042CECB835}" name="REQUISITO" totalsRowLabel="Total" dataDxfId="198"/>
+    <tableColumn id="2" xr3:uid="{D8DDA5BF-58B1-4AB4-88BF-E3A756B5B1E3}" name="DESCRIÇÃO" dataDxfId="197"/>
+    <tableColumn id="3" xr3:uid="{30B7566E-7078-4652-8F6F-03EBB14A7BD3}" name="CLASSIFICAÇÃO" dataDxfId="196"/>
+    <tableColumn id="4" xr3:uid="{9811019D-7C26-44C2-8FC5-702021479048}" name="FUNCIONALIDADE" dataDxfId="195"/>
+    <tableColumn id="5" xr3:uid="{32479D40-A407-49AA-A8FF-0BE375C8B00D}" name="TAMANHO" dataDxfId="194"/>
+    <tableColumn id="6" xr3:uid="{B0EB5ECB-B2AE-4132-A7E9-679B10665560}" name="TAM (#)" dataDxfId="193"/>
+    <tableColumn id="11" xr3:uid="{7A9296CF-AC69-447A-B252-2B8D46350DCC}" name="SPRINT" totalsRowFunction="count" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4290,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C378730-FC8F-4479-A9F9-487C359D13A9}">
   <dimension ref="C3:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4572,7 +3819,7 @@
       <c r="L9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="41">
         <v>18.5</v>
       </c>
       <c r="O9" s="41" t="s">
@@ -5081,87 +4328,87 @@
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="277" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="31" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="41" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="42" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="43" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="44" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576 I15:I17 I19 I23">
-    <cfRule type="cellIs" dxfId="272" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="50" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="52" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="53" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="54" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="55" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="267" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="16" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="18" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="19" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="20" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="262" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="11" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="13" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="14" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="15" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29">
-    <cfRule type="cellIs" dxfId="257" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="2" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="3" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="4" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="5" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6121,843 +5368,584 @@
     <mergeCell ref="B22:I22"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="241" priority="359" operator="equal">
+  <conditionalFormatting sqref="F5:F7">
+    <cfRule type="cellIs" dxfId="166" priority="117" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="118" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="116" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="115" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="114" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="360" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11:F14">
+    <cfRule type="cellIs" dxfId="161" priority="90" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="361" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="91" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="89" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="92" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="93" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="236" priority="216" operator="equal">
+  <conditionalFormatting sqref="F18:F20">
+    <cfRule type="cellIs" dxfId="156" priority="81" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="79" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="83" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="82" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="80" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="218" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F26">
+    <cfRule type="cellIs" dxfId="151" priority="37" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="35" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="34" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="38" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="36" operator="equal">
       <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="219" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="220" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:G4">
-    <cfRule type="cellIs" dxfId="231" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="404" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="406" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="405" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="403" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="407" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:G10">
+    <cfRule type="cellIs" dxfId="141" priority="379" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="380" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="381" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="383" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="382" operator="equal">
       <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="407" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="226" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="369" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="372" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="373" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="371" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="370" operator="equal">
       <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="371" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="372" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="373" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23">
-    <cfRule type="cellIs" dxfId="221" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="286" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="289" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="287" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="290" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="288" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="289" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="290" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="216" priority="364" operator="equal">
+  <conditionalFormatting sqref="G5:G7">
+    <cfRule type="cellIs" dxfId="126" priority="123" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="121" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="119" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="366" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G14">
+    <cfRule type="cellIs" dxfId="122" priority="96" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="94" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="95" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="97" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="98" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:G10">
-    <cfRule type="cellIs" dxfId="212" priority="379" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="380" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="381" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="382" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="383" operator="equal">
-      <formula>"M"</formula>
+  <conditionalFormatting sqref="G18:G20">
+    <cfRule type="cellIs" dxfId="117" priority="84" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="85" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="86" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="88" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="87" operator="equal">
+      <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="207" priority="231" operator="equal">
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="cellIs" dxfId="112" priority="33" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="32" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="31" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="30" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="29" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="232" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:H7">
+    <cfRule type="cellIs" dxfId="107" priority="100" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="233" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="234" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="235" operator="equal">
-      <formula>5</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:H7">
-    <cfRule type="cellIs" dxfId="202" priority="310" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H2 H10:H14 D15 H23 H16401:H1048576 H4:H8 H21 H17:H19">
-    <cfRule type="cellIs" dxfId="201" priority="400" operator="equal">
+  <conditionalFormatting sqref="H1:H2 H4:H8 H10:H14 D15 H17:H19 H21 H23 H16401:H1048576">
+    <cfRule type="cellIs" dxfId="106" priority="400" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="402" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4 I26">
-    <cfRule type="cellIs" dxfId="199" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="410" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H7">
-    <cfRule type="cellIs" dxfId="198" priority="309" operator="equal">
+  <conditionalFormatting sqref="H4:H7">
+    <cfRule type="cellIs" dxfId="103" priority="99" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="101" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="103" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="313" operator="equal">
-      <formula>5</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H14 H4:H8 H17:H19 H23 H1:H2 D15 H21 H16401:H1048576">
+    <cfRule type="cellIs" dxfId="99" priority="399" operator="equal">
+      <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H14">
-    <cfRule type="cellIs" dxfId="194" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="384" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="385" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="386" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="387" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="388" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H14 H23 H1:H2 D15 H16401:H1048576 H4:H8 H21 H17:H19">
-    <cfRule type="cellIs" dxfId="189" priority="399" operator="equal">
+  <conditionalFormatting sqref="H17:H20">
+    <cfRule type="cellIs" dxfId="93" priority="59" operator="equal">
+      <formula>21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="63" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="62" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="61" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="60" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="188" priority="201" operator="equal">
+  <conditionalFormatting sqref="H23:H25">
+    <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="19" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="202" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="23" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="22" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="21" operator="equal">
       <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="204" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="205" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="183" priority="291" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="292" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="293" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="294" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="295" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="178" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="409" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="411" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="412" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="413" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5:Q7">
-    <cfRule type="cellIs" dxfId="174" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="164" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="165" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="166" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="167" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="168" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18:Q20">
-    <cfRule type="cellIs" dxfId="169" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="155" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="154" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="155" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="156" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="157" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="158" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:Q26">
-    <cfRule type="cellIs" dxfId="164" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="133" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="129" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="130" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="131" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="132" operator="equal">
       <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="133" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:R4">
-    <cfRule type="cellIs" dxfId="159" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="193" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="192" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="191" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="192" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="193" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="195" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="194" operator="equal">
       <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="195" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:R17">
-    <cfRule type="cellIs" dxfId="154" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="173" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="174" operator="equal">
       <formula>"GG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="175" operator="equal">
       <formula>"PP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="176" operator="equal">
       <formula>"G"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="177" operator="equal">
       <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:R23">
-    <cfRule type="cellIs" dxfId="149" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="143" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="142" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="140" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="141" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="139" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="140" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="141" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="142" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="143" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:R7">
-    <cfRule type="cellIs" dxfId="144" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="170" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="171" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="172" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="169" operator="equal">
       <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="170" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="171" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="172" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10 Q10:Q14">
-    <cfRule type="cellIs" dxfId="140" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="182" operator="equal">
+      <formula>"M"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="181" operator="equal">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="180" operator="equal">
+      <formula>"PP"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="179" operator="equal">
+      <formula>"GG"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="178" operator="equal">
       <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="179" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="180" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="181" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="182" operator="equal">
-      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R18:R20">
-    <cfRule type="cellIs" dxfId="135" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="160" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="161" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="162" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="163" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="159" operator="equal">
       <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="160" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="161" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="162" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="163" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24:R26">
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="135" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="134" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="137" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="136" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="138" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5:S7">
-    <cfRule type="cellIs" dxfId="125" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="150" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S2 S4:S8 S10:S14 O15 S17:S21 S16401:S1048576 S23:S25">
-    <cfRule type="cellIs" dxfId="124" priority="189" operator="equal">
+  <conditionalFormatting sqref="S1:S2 S4:S8 S10:S14 O15 S17:S21 S16401:S1048576">
+    <cfRule type="cellIs" dxfId="29" priority="189" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4 T26">
-    <cfRule type="cellIs" dxfId="122" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="197" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S7">
-    <cfRule type="cellIs" dxfId="121" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="153" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="149" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="151" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="152" operator="equal">
       <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="153" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10:S14 R11:R14">
-    <cfRule type="cellIs" dxfId="117" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="183" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="184" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="185" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="186" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="187" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S10:S14 S4:S8 S17:S21 S1:S2 O15 S16401:S1048576 S23:S25">
-    <cfRule type="cellIs" dxfId="112" priority="188" operator="equal">
+  <conditionalFormatting sqref="S10:S14 S4:S8 S17:S21 S1:S2 O15 S16401:S1048576">
+    <cfRule type="cellIs" dxfId="17" priority="188" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:S20">
-    <cfRule type="cellIs" dxfId="111" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="127" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="128" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="126" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="125" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="124" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="125" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23:S26">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>8</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="126" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="127" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="128" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="cellIs" dxfId="106" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="145" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="146" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="147" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="148" operator="equal">
-      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="cellIs" dxfId="101" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="196" operator="equal">
       <formula>21</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="198" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="199" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="200" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F6">
-    <cfRule type="cellIs" dxfId="97" priority="114" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="115" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="116" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="117" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="118" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G6">
-    <cfRule type="cellIs" dxfId="92" priority="119" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="120" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="121" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="122" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="123" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="87" priority="104" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="105" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="106" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="107" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="108" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="82" priority="99" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="100" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="101" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="102" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="103" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
-    <cfRule type="cellIs" dxfId="77" priority="89" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="90" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="91" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="92" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="93" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G14">
-    <cfRule type="cellIs" dxfId="72" priority="94" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="95" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="96" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="97" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="98" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F20">
-    <cfRule type="cellIs" dxfId="67" priority="79" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="80" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="81" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="82" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="83" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G20">
-    <cfRule type="cellIs" dxfId="62" priority="84" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="85" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="86" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="87" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="88" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19">
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="67" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="68" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="52" priority="59" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="62" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="63" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="42" priority="54" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="55" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="56" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="57" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="58" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="35" operator="equal">
-      <formula>"GG"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>"PP"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="37" operator="equal">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S26">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="200" operator="equal">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
